--- a/src/Excel/AtivosB3.xlsx
+++ b/src/Excel/AtivosB3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4ad7bd98de3e4c7/Anexos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="284" documentId="13_ncr:1_{03856570-A56E-4C3A-8AA5-651CA31E76AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD04A7AE-727C-4504-B65C-6FC27CA46FC8}"/>
+  <xr:revisionPtr revIDLastSave="286" documentId="13_ncr:1_{03856570-A56E-4C3A-8AA5-651CA31E76AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4099651-C37A-4C43-A685-55D2991E39CF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9165" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" fullCalcOnLoad="1" fullPrecision="1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Ativo</t>
   </si>
@@ -56,146 +56,46 @@
     <t>GOGL34</t>
   </si>
   <si>
-    <t>74.99</t>
-  </si>
-  <si>
-    <t>-2.42</t>
-  </si>
-  <si>
-    <t>10/04/2025</t>
-  </si>
-  <si>
-    <t>14:33:21</t>
-  </si>
-  <si>
     <t>APPL34</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>14:33:42</t>
-  </si>
-  <si>
     <t>VALE3</t>
   </si>
   <si>
-    <t>52.17</t>
-  </si>
-  <si>
-    <t>+0.61</t>
-  </si>
-  <si>
-    <t>14:33:43</t>
-  </si>
-  <si>
     <t>PETR4</t>
   </si>
   <si>
-    <t>31.69</t>
-  </si>
-  <si>
-    <t>-4.83</t>
-  </si>
-  <si>
-    <t>14:33:44</t>
-  </si>
-  <si>
     <t>BCFF11</t>
   </si>
   <si>
-    <t>14:34:05</t>
-  </si>
-  <si>
     <t>BHIA3</t>
   </si>
   <si>
-    <t>6.96</t>
-  </si>
-  <si>
-    <t>-4.39</t>
-  </si>
-  <si>
-    <t>14:34:06</t>
-  </si>
-  <si>
     <t>RZAT11</t>
   </si>
   <si>
-    <t>89.72</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>14:34:07</t>
-  </si>
-  <si>
     <t>GRWA11</t>
   </si>
   <si>
-    <t>8.84</t>
-  </si>
-  <si>
-    <t>-2.75</t>
-  </si>
-  <si>
-    <t>14:34:08</t>
-  </si>
-  <si>
     <t>GOLL3</t>
   </si>
   <si>
-    <t>14:34:29</t>
-  </si>
-  <si>
     <t>HGAG11</t>
   </si>
   <si>
-    <t>13.70</t>
-  </si>
-  <si>
-    <t>+0</t>
-  </si>
-  <si>
-    <t>14:34:30</t>
-  </si>
-  <si>
     <t>AVLL3</t>
   </si>
   <si>
-    <t>14:34:51</t>
-  </si>
-  <si>
     <t>CASH3</t>
   </si>
   <si>
-    <t>3.08</t>
-  </si>
-  <si>
-    <t>+0.32</t>
-  </si>
-  <si>
-    <t>14:34:52</t>
-  </si>
-  <si>
     <t>RURA11</t>
-  </si>
-  <si>
-    <t>7.49</t>
-  </si>
-  <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>14:34:53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -261,18 +161,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="20" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="22" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,7 +510,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -622,7 +522,7 @@
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -640,264 +540,155 @@
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" ht="15">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="15">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="15">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="15">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="15">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" ht="15">
-      <c r="A3" s="5" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="15">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="15">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="15">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" ht="15">
-      <c r="A4" s="5" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="15">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="15">
+      <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="15">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" ht="15">
-      <c r="A5" s="5" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15">
+      <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" ht="15">
-      <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" ht="15">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" ht="15">
-      <c r="A8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" ht="15">
-      <c r="A9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" ht="15">
-      <c r="A10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" ht="15">
-      <c r="A11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" ht="15">
-      <c r="A12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" ht="15">
-      <c r="A13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" ht="15">
-      <c r="A14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" ht="15">
+    <row r="15" spans="1:8" ht="15">
       <c r="H15" s="3"/>
     </row>
-    <row r="16" ht="15">
+    <row r="16" spans="1:8" ht="15">
       <c r="C16" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" display="https://www.infomoney.com.br/cotacoes/b3/acao/grupo-casas-bahia-bhia3/" r:id="rId1"/>
-    <hyperlink ref="A8" display="https://www.infomoney.com.br/cotacoes/b3/fii/riza-arctium-rzat11/" r:id="rId2"/>
-    <hyperlink ref="A9" display="https://www.infomoney.com.br/cotacoes/b3/fii/friagro-greenwich-grwa11/" r:id="rId3"/>
-    <hyperlink ref="A10" display="https://www.infomoney.com.br/cotacoes/b3/acao/gol-goll3/" r:id="rId4"/>
-    <hyperlink ref="A11" display="https://www.infomoney.com.br/cotacoes/b3/fii/high-fundo-de-investimento-agro-hgag11/" r:id="rId5"/>
-    <hyperlink ref="A12" display="https://www.infomoney.com.br/cotacoes/b3/acao/alphaville-avll3/" r:id="rId6"/>
-    <hyperlink ref="A13" display="https://www.infomoney.com.br/cotacoes/b3/acao/meliuz-cash3/" r:id="rId7"/>
-    <hyperlink ref="A14" display="https://www.infomoney.com.br/cotacoes/b3/fii/itau-asset-rural-fiagro-rura11/" r:id="rId8"/>
+    <hyperlink ref="A7" r:id="rId1" display="https://www.infomoney.com.br/cotacoes/b3/acao/grupo-casas-bahia-bhia3/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A8" r:id="rId2" display="https://www.infomoney.com.br/cotacoes/b3/fii/riza-arctium-rzat11/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A9" r:id="rId3" display="https://www.infomoney.com.br/cotacoes/b3/fii/friagro-greenwich-grwa11/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A10" r:id="rId4" display="https://www.infomoney.com.br/cotacoes/b3/acao/gol-goll3/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A11" r:id="rId5" display="https://www.infomoney.com.br/cotacoes/b3/fii/high-fundo-de-investimento-agro-hgag11/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A12" r:id="rId6" display="https://www.infomoney.com.br/cotacoes/b3/acao/alphaville-avll3/" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A13" r:id="rId7" display="https://www.infomoney.com.br/cotacoes/b3/acao/meliuz-cash3/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A14" r:id="rId8" display="https://www.infomoney.com.br/cotacoes/b3/fii/itau-asset-rural-fiagro-rura11/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
-</file>
-
-<file path=EPPlusLicense.txt>This workbook was created with the EPPlus library, licensed to Kelly Silva under the Polyform Noncommercial license, see https://polyformproject.org/licenses/noncommercial/1.0.0
-For more information about EPPlus, see https://epplussoftware.com/
-
 </file>